--- a/natmiOut/OldD4/LR-pairs_lrc2p/Jag1-Notch3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Jag1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H2">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I2">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J2">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.70468916187764</v>
+        <v>8.819868333333334</v>
       </c>
       <c r="N2">
-        <v>6.70468916187764</v>
+        <v>26.459605</v>
       </c>
       <c r="O2">
-        <v>0.0466399255592423</v>
+        <v>0.06009452733181694</v>
       </c>
       <c r="P2">
-        <v>0.0466399255592423</v>
+        <v>0.08592393201160566</v>
       </c>
       <c r="Q2">
-        <v>89.41869183976954</v>
+        <v>128.1020196797145</v>
       </c>
       <c r="R2">
-        <v>89.41869183976954</v>
+        <v>1152.91817711743</v>
       </c>
       <c r="S2">
-        <v>0.009319473214972089</v>
+        <v>0.0125802290143468</v>
       </c>
       <c r="T2">
-        <v>0.009319473214972089</v>
+        <v>0.02160091537652625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H3">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I3">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J3">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.10002533935425</v>
+        <v>5.485874</v>
       </c>
       <c r="N3">
-        <v>5.10002533935425</v>
+        <v>16.457622</v>
       </c>
       <c r="O3">
-        <v>0.0354773795525396</v>
+        <v>0.03737822295894862</v>
       </c>
       <c r="P3">
-        <v>0.0354773795525396</v>
+        <v>0.05344386636915803</v>
       </c>
       <c r="Q3">
-        <v>68.01770867883471</v>
+        <v>79.67823470249468</v>
       </c>
       <c r="R3">
-        <v>68.01770867883471</v>
+        <v>717.104112322452</v>
       </c>
       <c r="S3">
-        <v>0.007089001204715101</v>
+        <v>0.007824782486040594</v>
       </c>
       <c r="T3">
-        <v>0.007089001204715101</v>
+        <v>0.0134355633850489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H4">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I4">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J4">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>131.949570727232</v>
+        <v>0.06916233333333334</v>
       </c>
       <c r="N4">
-        <v>131.949570727232</v>
+        <v>0.207487</v>
       </c>
       <c r="O4">
-        <v>0.9178826948882181</v>
+        <v>0.0004712403375823903</v>
       </c>
       <c r="P4">
-        <v>0.9178826948882181</v>
+        <v>0.0006737855263255828</v>
       </c>
       <c r="Q4">
-        <v>1759.777033413433</v>
+        <v>1.004531388782445</v>
       </c>
       <c r="R4">
-        <v>1759.777033413433</v>
+        <v>9.040782499042001</v>
       </c>
       <c r="S4">
-        <v>0.1834090232119169</v>
+        <v>9.864977113225135E-05</v>
       </c>
       <c r="T4">
-        <v>0.1834090232119169</v>
+        <v>0.0001693868494533196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.2370954680494</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H5">
-        <v>12.2370954680494</v>
+        <v>43.572766</v>
       </c>
       <c r="I5">
-        <v>0.1833420995009699</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J5">
-        <v>0.1833420995009699</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.70468916187764</v>
+        <v>0.03413666666666667</v>
       </c>
       <c r="N5">
-        <v>6.70468916187764</v>
+        <v>0.10241</v>
       </c>
       <c r="O5">
-        <v>0.0466399255592423</v>
+        <v>0.0002325915501781441</v>
       </c>
       <c r="P5">
-        <v>0.0466399255592423</v>
+        <v>0.0003325624051193711</v>
       </c>
       <c r="Q5">
-        <v>82.0459213574928</v>
+        <v>0.4958096628955556</v>
       </c>
       <c r="R5">
-        <v>82.0459213574928</v>
+        <v>4.46228696606</v>
       </c>
       <c r="S5">
-        <v>0.008551061872600432</v>
+        <v>4.869087249636778E-05</v>
       </c>
       <c r="T5">
-        <v>0.008551061872600432</v>
+        <v>8.360479091468121E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.2370954680494</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H6">
-        <v>12.2370954680494</v>
+        <v>43.572766</v>
       </c>
       <c r="I6">
-        <v>0.1833420995009699</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J6">
-        <v>0.1833420995009699</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.10002533935425</v>
+        <v>132.35754</v>
       </c>
       <c r="N6">
-        <v>5.10002533935425</v>
+        <v>264.71508</v>
       </c>
       <c r="O6">
-        <v>0.0354773795525396</v>
+        <v>0.9018234178214739</v>
       </c>
       <c r="P6">
-        <v>0.0354773795525396</v>
+        <v>0.8596258536877913</v>
       </c>
       <c r="Q6">
-        <v>62.409496967149</v>
+        <v>1922.39470625188</v>
       </c>
       <c r="R6">
-        <v>62.409496967149</v>
+        <v>11534.36823751128</v>
       </c>
       <c r="S6">
-        <v>0.006504497251955391</v>
+        <v>0.1887883245016961</v>
       </c>
       <c r="T6">
-        <v>0.006504497251955391</v>
+        <v>0.2161063266806279</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H7">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I7">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J7">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>131.949570727232</v>
+        <v>8.819868333333334</v>
       </c>
       <c r="N7">
-        <v>131.949570727232</v>
+        <v>26.459605</v>
       </c>
       <c r="O7">
-        <v>0.9178826948882181</v>
+        <v>0.06009452733181694</v>
       </c>
       <c r="P7">
-        <v>0.9178826948882181</v>
+        <v>0.08592393201160566</v>
       </c>
       <c r="Q7">
-        <v>1614.679493957274</v>
+        <v>115.9724928143417</v>
       </c>
       <c r="R7">
-        <v>1614.679493957274</v>
+        <v>1043.752435329075</v>
       </c>
       <c r="S7">
-        <v>0.1682865403764141</v>
+        <v>0.01138905165286898</v>
       </c>
       <c r="T7">
-        <v>0.1682865403764141</v>
+        <v>0.01955560114938679</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.02363054814024</v>
+        <v>13.149005</v>
       </c>
       <c r="H8">
-        <v>3.02363054814024</v>
+        <v>39.447015</v>
       </c>
       <c r="I8">
-        <v>0.04530149938428692</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J8">
-        <v>0.04530149938428692</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.70468916187764</v>
+        <v>5.485874</v>
       </c>
       <c r="N8">
-        <v>6.70468916187764</v>
+        <v>16.457622</v>
       </c>
       <c r="O8">
-        <v>0.0466399255592423</v>
+        <v>0.03737822295894862</v>
       </c>
       <c r="P8">
-        <v>0.0466399255592423</v>
+        <v>0.05344386636915803</v>
       </c>
       <c r="Q8">
-        <v>20.27250296563802</v>
+        <v>72.13378465537001</v>
       </c>
       <c r="R8">
-        <v>20.27250296563802</v>
+        <v>649.20406189833</v>
       </c>
       <c r="S8">
-        <v>0.002112858559005202</v>
+        <v>0.007083881525872849</v>
       </c>
       <c r="T8">
-        <v>0.002112858559005202</v>
+        <v>0.01216339743920491</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.02363054814024</v>
+        <v>13.149005</v>
       </c>
       <c r="H9">
-        <v>3.02363054814024</v>
+        <v>39.447015</v>
       </c>
       <c r="I9">
-        <v>0.04530149938428692</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J9">
-        <v>0.04530149938428692</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.10002533935425</v>
+        <v>0.06916233333333334</v>
       </c>
       <c r="N9">
-        <v>5.10002533935425</v>
+        <v>0.207487</v>
       </c>
       <c r="O9">
-        <v>0.0354773795525396</v>
+        <v>0.0004712403375823903</v>
       </c>
       <c r="P9">
-        <v>0.0354773795525396</v>
+        <v>0.0006737855263255828</v>
       </c>
       <c r="Q9">
-        <v>15.42059241236081</v>
+        <v>0.9094158668116668</v>
       </c>
       <c r="R9">
-        <v>15.42059241236081</v>
+        <v>8.184742801305001</v>
       </c>
       <c r="S9">
-        <v>0.001607178487955486</v>
+        <v>8.930897344457054E-05</v>
       </c>
       <c r="T9">
-        <v>0.001607178487955486</v>
+        <v>0.0001533482081717704</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.02363054814024</v>
+        <v>13.149005</v>
       </c>
       <c r="H10">
-        <v>3.02363054814024</v>
+        <v>39.447015</v>
       </c>
       <c r="I10">
-        <v>0.04530149938428692</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J10">
-        <v>0.04530149938428692</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>131.949570727232</v>
+        <v>0.03413666666666667</v>
       </c>
       <c r="N10">
-        <v>131.949570727232</v>
+        <v>0.10241</v>
       </c>
       <c r="O10">
-        <v>0.9178826948882181</v>
+        <v>0.0002325915501781441</v>
       </c>
       <c r="P10">
-        <v>0.9178826948882181</v>
+        <v>0.0003325624051193711</v>
       </c>
       <c r="Q10">
-        <v>398.9667528648498</v>
+        <v>0.4488632006833334</v>
       </c>
       <c r="R10">
-        <v>398.9667528648498</v>
+        <v>4.03976880615</v>
       </c>
       <c r="S10">
-        <v>0.04158146233732623</v>
+        <v>4.40805061062065E-05</v>
       </c>
       <c r="T10">
-        <v>0.04158146233732623</v>
+        <v>7.568854915667491E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.44559127623566</v>
+        <v>13.149005</v>
       </c>
       <c r="H11">
-        <v>3.44559127623566</v>
+        <v>39.447015</v>
       </c>
       <c r="I11">
-        <v>0.05162351967071555</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J11">
-        <v>0.05162351967071555</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.70468916187764</v>
+        <v>132.35754</v>
       </c>
       <c r="N11">
-        <v>6.70468916187764</v>
+        <v>264.71508</v>
       </c>
       <c r="O11">
-        <v>0.0466399255592423</v>
+        <v>0.9018234178214739</v>
       </c>
       <c r="P11">
-        <v>0.0466399255592423</v>
+        <v>0.8596258536877913</v>
       </c>
       <c r="Q11">
-        <v>23.10161848603738</v>
+        <v>1740.3699552477</v>
       </c>
       <c r="R11">
-        <v>23.10161848603738</v>
+        <v>10442.2197314862</v>
       </c>
       <c r="S11">
-        <v>0.002407717114548254</v>
+        <v>0.1709126262134305</v>
       </c>
       <c r="T11">
-        <v>0.002407717114548254</v>
+        <v>0.1956439834497913</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.44559127623566</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H12">
-        <v>3.44559127623566</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I12">
-        <v>0.05162351967071555</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J12">
-        <v>0.05162351967071555</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.10002533935425</v>
+        <v>8.819868333333334</v>
       </c>
       <c r="N12">
-        <v>5.10002533935425</v>
+        <v>26.459605</v>
       </c>
       <c r="O12">
-        <v>0.0354773795525396</v>
+        <v>0.06009452733181694</v>
       </c>
       <c r="P12">
-        <v>0.0354773795525396</v>
+        <v>0.08592393201160566</v>
       </c>
       <c r="Q12">
-        <v>17.57260281785982</v>
+        <v>29.19194435050055</v>
       </c>
       <c r="R12">
-        <v>17.57260281785982</v>
+        <v>262.727499154505</v>
       </c>
       <c r="S12">
-        <v>0.00183146720119597</v>
+        <v>0.002866788097654939</v>
       </c>
       <c r="T12">
-        <v>0.00183146720119597</v>
+        <v>0.004922426056732032</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.44559127623566</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H13">
-        <v>3.44559127623566</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I13">
-        <v>0.05162351967071555</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J13">
-        <v>0.05162351967071555</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>131.949570727232</v>
+        <v>5.485874</v>
       </c>
       <c r="N13">
-        <v>131.949570727232</v>
+        <v>16.457622</v>
       </c>
       <c r="O13">
-        <v>0.9178826948882181</v>
+        <v>0.03737822295894862</v>
       </c>
       <c r="P13">
-        <v>0.9178826948882181</v>
+        <v>0.05344386636915803</v>
       </c>
       <c r="Q13">
-        <v>454.6442898007907</v>
+        <v>18.15711102133133</v>
       </c>
       <c r="R13">
-        <v>454.6442898007907</v>
+        <v>163.413999191982</v>
       </c>
       <c r="S13">
-        <v>0.04738433535497132</v>
+        <v>0.001783114860002788</v>
       </c>
       <c r="T13">
-        <v>0.04738433535497132</v>
+        <v>0.00306170206866831</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.701545386124</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H14">
-        <v>34.701545386124</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I14">
-        <v>0.5199153838124234</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J14">
-        <v>0.5199153838124234</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.70468916187764</v>
+        <v>0.06916233333333334</v>
       </c>
       <c r="N14">
-        <v>6.70468916187764</v>
+        <v>0.207487</v>
       </c>
       <c r="O14">
-        <v>0.0466399255592423</v>
+        <v>0.0004712403375823903</v>
       </c>
       <c r="P14">
-        <v>0.0466399255592423</v>
+        <v>0.0006737855263255828</v>
       </c>
       <c r="Q14">
-        <v>232.6630752507506</v>
+        <v>0.2289130528385556</v>
       </c>
       <c r="R14">
-        <v>232.6630752507506</v>
+        <v>2.060217475547</v>
       </c>
       <c r="S14">
-        <v>0.02424881479811632</v>
+        <v>2.248035305206296E-05</v>
       </c>
       <c r="T14">
-        <v>0.02424881479811632</v>
+        <v>3.859994944116358E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.701545386124</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H15">
-        <v>34.701545386124</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I15">
-        <v>0.5199153838124234</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J15">
-        <v>0.5199153838124234</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>5.10002533935425</v>
+        <v>0.03413666666666667</v>
       </c>
       <c r="N15">
-        <v>5.10002533935425</v>
+        <v>0.10241</v>
       </c>
       <c r="O15">
-        <v>0.0354773795525396</v>
+        <v>0.0002325915501781441</v>
       </c>
       <c r="P15">
-        <v>0.0354773795525396</v>
+        <v>0.0003325624051193711</v>
       </c>
       <c r="Q15">
-        <v>176.978760783984</v>
+        <v>0.1129853231344444</v>
       </c>
       <c r="R15">
-        <v>176.978760783984</v>
+        <v>1.01686790821</v>
       </c>
       <c r="S15">
-        <v>0.01844523540671765</v>
+        <v>1.109569735001117E-05</v>
       </c>
       <c r="T15">
-        <v>0.01844523540671765</v>
+        <v>1.905189637071028E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.701545386124</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H16">
-        <v>34.701545386124</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I16">
-        <v>0.5199153838124234</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J16">
-        <v>0.5199153838124234</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>131.949570727232</v>
+        <v>132.35754</v>
       </c>
       <c r="N16">
-        <v>131.949570727232</v>
+        <v>264.71508</v>
       </c>
       <c r="O16">
-        <v>0.9178826948882181</v>
+        <v>0.9018234178214739</v>
       </c>
       <c r="P16">
-        <v>0.9178826948882181</v>
+        <v>0.8596258536877913</v>
       </c>
       <c r="Q16">
-        <v>4578.85401727062</v>
+        <v>438.0761476275799</v>
       </c>
       <c r="R16">
-        <v>4578.85401727062</v>
+        <v>2628.45688576548</v>
       </c>
       <c r="S16">
-        <v>0.4772213336075894</v>
+        <v>0.04302116607261001</v>
       </c>
       <c r="T16">
-        <v>0.4772213336075894</v>
+        <v>0.04924640437383341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.578409999999999</v>
+      </c>
+      <c r="H17">
+        <v>10.73523</v>
+      </c>
+      <c r="I17">
+        <v>0.05157626009208015</v>
+      </c>
+      <c r="J17">
+        <v>0.06193758052253853</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.819868333333334</v>
+      </c>
+      <c r="N17">
+        <v>26.459605</v>
+      </c>
+      <c r="O17">
+        <v>0.06009452733181694</v>
+      </c>
+      <c r="P17">
+        <v>0.08592393201160566</v>
+      </c>
+      <c r="Q17">
+        <v>31.56110504268333</v>
+      </c>
+      <c r="R17">
+        <v>284.04994538415</v>
+      </c>
+      <c r="S17">
+        <v>0.00309945097177641</v>
+      </c>
+      <c r="T17">
+        <v>0.005321920457781951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.578409999999999</v>
+      </c>
+      <c r="H18">
+        <v>10.73523</v>
+      </c>
+      <c r="I18">
+        <v>0.05157626009208015</v>
+      </c>
+      <c r="J18">
+        <v>0.06193758052253853</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.485874</v>
+      </c>
+      <c r="N18">
+        <v>16.457622</v>
+      </c>
+      <c r="O18">
+        <v>0.03737822295894862</v>
+      </c>
+      <c r="P18">
+        <v>0.05344386636915803</v>
+      </c>
+      <c r="Q18">
+        <v>19.63070638034</v>
+      </c>
+      <c r="R18">
+        <v>176.67635742306</v>
+      </c>
+      <c r="S18">
+        <v>0.001927828949110496</v>
+      </c>
+      <c r="T18">
+        <v>0.003310183776675514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.578409999999999</v>
+      </c>
+      <c r="H19">
+        <v>10.73523</v>
+      </c>
+      <c r="I19">
+        <v>0.05157626009208015</v>
+      </c>
+      <c r="J19">
+        <v>0.06193758052253853</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.06916233333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.207487</v>
+      </c>
+      <c r="O19">
+        <v>0.0004712403375823903</v>
+      </c>
+      <c r="P19">
+        <v>0.0006737855263255828</v>
+      </c>
+      <c r="Q19">
+        <v>0.2474911852233333</v>
+      </c>
+      <c r="R19">
+        <v>2.22742066701</v>
+      </c>
+      <c r="S19">
+        <v>2.430481421702901E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.173264529171179E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.578409999999999</v>
+      </c>
+      <c r="H20">
+        <v>10.73523</v>
+      </c>
+      <c r="I20">
+        <v>0.05157626009208015</v>
+      </c>
+      <c r="J20">
+        <v>0.06193758052253853</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03413666666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.10241</v>
+      </c>
+      <c r="O20">
+        <v>0.0002325915501781441</v>
+      </c>
+      <c r="P20">
+        <v>0.0003325624051193711</v>
+      </c>
+      <c r="Q20">
+        <v>0.1221549893666667</v>
+      </c>
+      <c r="R20">
+        <v>1.0993949043</v>
+      </c>
+      <c r="S20">
+        <v>1.199620228720807E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.059811074585012E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.578409999999999</v>
+      </c>
+      <c r="H21">
+        <v>10.73523</v>
+      </c>
+      <c r="I21">
+        <v>0.05157626009208015</v>
+      </c>
+      <c r="J21">
+        <v>0.06193758052253853</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>132.35754</v>
+      </c>
+      <c r="N21">
+        <v>264.71508</v>
+      </c>
+      <c r="O21">
+        <v>0.9018234178214739</v>
+      </c>
+      <c r="P21">
+        <v>0.8596258536877913</v>
+      </c>
+      <c r="Q21">
+        <v>473.6295447113999</v>
+      </c>
+      <c r="R21">
+        <v>2841.777268268399</v>
+      </c>
+      <c r="S21">
+        <v>0.04651267915468901</v>
+      </c>
+      <c r="T21">
+        <v>0.0532431455320435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>34.8194875</v>
+      </c>
+      <c r="H22">
+        <v>69.638975</v>
+      </c>
+      <c r="I22">
+        <v>0.5018594693098147</v>
+      </c>
+      <c r="J22">
+        <v>0.4017864192541332</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.819868333333334</v>
+      </c>
+      <c r="N22">
+        <v>26.459605</v>
+      </c>
+      <c r="O22">
+        <v>0.06009452733181694</v>
+      </c>
+      <c r="P22">
+        <v>0.08592393201160566</v>
+      </c>
+      <c r="Q22">
+        <v>307.1032951841458</v>
+      </c>
+      <c r="R22">
+        <v>1842.619771104875</v>
+      </c>
+      <c r="S22">
+        <v>0.0301590075951698</v>
+      </c>
+      <c r="T22">
+        <v>0.03452306897117863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>34.8194875</v>
+      </c>
+      <c r="H23">
+        <v>69.638975</v>
+      </c>
+      <c r="I23">
+        <v>0.5018594693098147</v>
+      </c>
+      <c r="J23">
+        <v>0.4017864192541332</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.485874</v>
+      </c>
+      <c r="N23">
+        <v>16.457622</v>
+      </c>
+      <c r="O23">
+        <v>0.03737822295894862</v>
+      </c>
+      <c r="P23">
+        <v>0.05344386636915803</v>
+      </c>
+      <c r="Q23">
+        <v>191.015321169575</v>
+      </c>
+      <c r="R23">
+        <v>1146.09192701745</v>
+      </c>
+      <c r="S23">
+        <v>0.01875861513792189</v>
+      </c>
+      <c r="T23">
+        <v>0.0214730196995604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>34.8194875</v>
+      </c>
+      <c r="H24">
+        <v>69.638975</v>
+      </c>
+      <c r="I24">
+        <v>0.5018594693098147</v>
+      </c>
+      <c r="J24">
+        <v>0.4017864192541332</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.06916233333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.207487</v>
+      </c>
+      <c r="O24">
+        <v>0.0004712403375823903</v>
+      </c>
+      <c r="P24">
+        <v>0.0006737855263255828</v>
+      </c>
+      <c r="Q24">
+        <v>2.408197000970834</v>
+      </c>
+      <c r="R24">
+        <v>14.449182005825</v>
+      </c>
+      <c r="S24">
+        <v>0.0002364964257364763</v>
+      </c>
+      <c r="T24">
+        <v>0.0002707178739676174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>34.8194875</v>
+      </c>
+      <c r="H25">
+        <v>69.638975</v>
+      </c>
+      <c r="I25">
+        <v>0.5018594693098147</v>
+      </c>
+      <c r="J25">
+        <v>0.4017864192541332</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.03413666666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.10241</v>
+      </c>
+      <c r="O25">
+        <v>0.0002325915501781441</v>
+      </c>
+      <c r="P25">
+        <v>0.0003325624051193711</v>
+      </c>
+      <c r="Q25">
+        <v>1.188621238291667</v>
+      </c>
+      <c r="R25">
+        <v>7.131727429750001</v>
+      </c>
+      <c r="S25">
+        <v>0.0001167282719383505</v>
+      </c>
+      <c r="T25">
+        <v>0.0001336190579314545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>34.8194875</v>
+      </c>
+      <c r="H26">
+        <v>69.638975</v>
+      </c>
+      <c r="I26">
+        <v>0.5018594693098147</v>
+      </c>
+      <c r="J26">
+        <v>0.4017864192541332</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>132.35754</v>
+      </c>
+      <c r="N26">
+        <v>264.71508</v>
+      </c>
+      <c r="O26">
+        <v>0.9018234178214739</v>
+      </c>
+      <c r="P26">
+        <v>0.8596258536877913</v>
+      </c>
+      <c r="Q26">
+        <v>4608.62170956075</v>
+      </c>
+      <c r="R26">
+        <v>18434.486838243</v>
+      </c>
+      <c r="S26">
+        <v>0.4525886218790482</v>
+      </c>
+      <c r="T26">
+        <v>0.3453859936514951</v>
       </c>
     </row>
   </sheetData>
